--- a/individual_group_results.xlsx
+++ b/individual_group_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f97c52db77750b0d/Documents/GitHub/369A_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6748E611-17E9-42FB-B48A-AAA5A630E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{6748E611-17E9-42FB-B48A-AAA5A630E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8F3D7C-E35A-4B17-8E60-290FB08076D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Group Number</t>
   </si>
@@ -247,7 +247,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">William Rains 33%: Modified and optimized the top_level datapath, and </t>
+    <t>William Rains 33%: Modified and optimized the top_level datapath by removing defunct muxes therefore decreasing the critical path delay.</t>
+  </si>
+  <si>
+    <t>Kari Cordes - 33%: Modified and optimized the vbsme code. Cut out unneeded instructions and changed the search pattern to looking left to right to decrease the runtime.</t>
+  </si>
+  <si>
+    <t>Samantha Perry 33%: Created the Forwarding unit to decrease the cycle count and reduces the number of stall cycles used. Cut out uneeded instructions from the Controller, ALU, Comparator, and DataMemory to decrease the runtime.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,6 +352,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -631,7 +638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>17</v>
       </c>
@@ -677,6 +684,19 @@
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">

--- a/individual_group_results.xlsx
+++ b/individual_group_results.xlsx
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,7 +352,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,6 +367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="6"/>
+      <c r="N5"/>
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">

--- a/individual_group_results.xlsx
+++ b/individual_group_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f97c52db77750b0d/Documents/GitHub/369A_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{6748E611-17E9-42FB-B48A-AAA5A630E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8F3D7C-E35A-4B17-8E60-290FB08076D1}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{6748E611-17E9-42FB-B48A-AAA5A630E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718957A8-C37F-4665-B535-6B1D4D2F000A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Group Number</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Samantha Perry 33%: Created the Forwarding unit to decrease the cycle count and reduces the number of stall cycles used. Cut out uneeded instructions from the Controller, ALU, Comparator, and DataMemory to decrease the runtime.</t>
+  </si>
+  <si>
+    <t>Some of the cells appear empty but there are values when you click on it.</t>
   </si>
 </sst>
 </file>
@@ -576,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,6 +692,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
